--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H2">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N2">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q2">
-        <v>21.08325080787834</v>
+        <v>18.93469085358333</v>
       </c>
       <c r="R2">
-        <v>189.749257270905</v>
+        <v>170.41221768225</v>
       </c>
       <c r="S2">
-        <v>0.09162195398966694</v>
+        <v>0.1032490674604548</v>
       </c>
       <c r="T2">
-        <v>0.09162195398966694</v>
+        <v>0.1032490674604548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H3">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q3">
-        <v>68.32929899758834</v>
+        <v>38.41388360677167</v>
       </c>
       <c r="R3">
-        <v>614.9636909782951</v>
+        <v>345.724952460945</v>
       </c>
       <c r="S3">
-        <v>0.2969401609814289</v>
+        <v>0.2094672519664104</v>
       </c>
       <c r="T3">
-        <v>0.2969401609814289</v>
+        <v>0.2094672519664104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H4">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q4">
-        <v>51.64669761441</v>
+        <v>29.03513221911</v>
       </c>
       <c r="R4">
-        <v>464.82027852969</v>
+        <v>261.31618997199</v>
       </c>
       <c r="S4">
-        <v>0.2244422074975972</v>
+        <v>0.1583258131012358</v>
       </c>
       <c r="T4">
-        <v>0.2244422074975972</v>
+        <v>0.1583258131012358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N5">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q5">
-        <v>6.190383903072223</v>
+        <v>9.88910471861111</v>
       </c>
       <c r="R5">
-        <v>55.71345512765001</v>
+        <v>89.0019424675</v>
       </c>
       <c r="S5">
-        <v>0.02690168960726481</v>
+        <v>0.0539243470152644</v>
       </c>
       <c r="T5">
-        <v>0.02690168960726481</v>
+        <v>0.0539243470152644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q6">
         <v>20.06258885203889</v>
@@ -818,10 +818,10 @@
         <v>180.56329966835</v>
       </c>
       <c r="S6">
-        <v>0.087186440528812</v>
+        <v>0.1093993879188958</v>
       </c>
       <c r="T6">
-        <v>0.08718644052881198</v>
+        <v>0.1093993879188958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q7">
         <v>15.1643068933</v>
@@ -880,10 +880,10 @@
         <v>136.4787620397</v>
       </c>
       <c r="S7">
-        <v>0.06589986720377772</v>
+        <v>0.08268952250261151</v>
       </c>
       <c r="T7">
-        <v>0.06589986720377772</v>
+        <v>0.08268952250261151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N8">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q8">
-        <v>7.119680368740556</v>
+        <v>11.37365078352778</v>
       </c>
       <c r="R8">
-        <v>64.077123318665</v>
+        <v>102.36285705175</v>
       </c>
       <c r="S8">
-        <v>0.03094015401657723</v>
+        <v>0.0620194354426377</v>
       </c>
       <c r="T8">
-        <v>0.03094015401657723</v>
+        <v>0.0620194354426377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>14.919985</v>
       </c>
       <c r="O9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q9">
         <v>23.07437183743722</v>
@@ -1004,10 +1004,10 @@
         <v>207.669346536935</v>
       </c>
       <c r="S9">
-        <v>0.1002748131251249</v>
+        <v>0.1258223539467142</v>
       </c>
       <c r="T9">
-        <v>0.1002748131251249</v>
+        <v>0.1258223539467142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.27727</v>
       </c>
       <c r="O10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q10">
         <v>17.44076292913</v>
@@ -1066,10 +1066,10 @@
         <v>156.96686636217</v>
       </c>
       <c r="S10">
-        <v>0.07579271304975023</v>
+        <v>0.09510282064577555</v>
       </c>
       <c r="T10">
-        <v>0.07579271304975023</v>
+        <v>0.09510282064577555</v>
       </c>
     </row>
   </sheetData>
